--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,15 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,81 +70,87 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>important</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -166,13 +169,13 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -533,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,38 +605,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L3">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>32</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L3">
-        <v>56</v>
-      </c>
-      <c r="M3">
-        <v>56</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,16 +676,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7328767123287672</v>
+        <v>0.6883561643835616</v>
       </c>
       <c r="C5">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D5">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3733333333333334</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8515625</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3604651162790697</v>
+        <v>0.3895348837209303</v>
       </c>
       <c r="C7">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D7">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3422818791946309</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.825</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2888888888888889</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8098591549295775</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L9">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2804232804232804</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8083333333333333</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,88 +1005,64 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1944444444444444</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>330</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L11">
+        <v>46</v>
+      </c>
+      <c r="M11">
+        <v>46</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
         <v>49</v>
       </c>
-      <c r="D11">
+      <c r="M12">
         <v>49</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>203</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8046875</v>
-      </c>
-      <c r="L11">
-        <v>103</v>
-      </c>
-      <c r="M11">
-        <v>103</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1126005361930295</v>
-      </c>
-      <c r="C12">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>42</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>331</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L12">
-        <v>41</v>
-      </c>
-      <c r="M12">
-        <v>41</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1094,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1146,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1172,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.746031746031746</v>
+        <v>0.74375</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1198,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.70625</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1224,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.648936170212766</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1250,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6458333333333334</v>
+        <v>0.6501305483028721</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1276,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1302,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6161879895561357</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1328,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5911764705882353</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1354,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.559322033898305</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L23">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="M23">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1380,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5168539325842697</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L24">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1406,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4686192468619247</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L25">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1432,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.453125</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1458,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4383561643835616</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1484,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.3974358974358974</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1510,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.3846153846153846</v>
+        <v>0.4375</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1536,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.1220095693779904</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1562,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>367</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.09375</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>377</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.07270693512304251</v>
+        <v>0.1076555023923445</v>
       </c>
       <c r="L32">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1614,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>829</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.048834628190899</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L33">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1640,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>857</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.04307692307692308</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1666,85 +1645,137 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>622</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.03651685393258427</v>
+        <v>0.05327413984461709</v>
       </c>
       <c r="L35">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N35">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2058</v>
+        <v>853</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.03236994219653179</v>
+        <v>0.04041570438799076</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.04006163328197226</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>27</v>
+      </c>
+      <c r="N37">
+        <v>0.96</v>
+      </c>
+      <c r="O37">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K37">
-        <v>0.01581155211358503</v>
-      </c>
-      <c r="L37">
-        <v>49</v>
-      </c>
-      <c r="M37">
+      <c r="K38">
+        <v>0.02667290594291062</v>
+      </c>
+      <c r="L38">
         <v>57</v>
       </c>
-      <c r="N37">
-        <v>0.86</v>
-      </c>
-      <c r="O37">
-        <v>0.14</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>3050</v>
+      <c r="M38">
+        <v>63</v>
+      </c>
+      <c r="N38">
+        <v>0.9</v>
+      </c>
+      <c r="O38">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>0.01483392454047082</v>
+      </c>
+      <c r="L39">
+        <v>46</v>
+      </c>
+      <c r="M39">
+        <v>52</v>
+      </c>
+      <c r="N39">
+        <v>0.88</v>
+      </c>
+      <c r="O39">
+        <v>0.12</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3055</v>
       </c>
     </row>
   </sheetData>
